--- a/data/Excel/2.6.xlsx
+++ b/data/Excel/2.6.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADBDACE-BCFA-438B-83A7-9447D59FF3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22D9B9A-DC63-4EC0-B6F0-7C27A0891A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2.0" sheetId="2" r:id="rId1"/>
+    <sheet name="2.0" sheetId="4" r:id="rId1"/>
     <sheet name="2.6" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2.0'!$A$1:$I$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2.6'!$A$1:$H$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2.6'!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Форма 2.0</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">Регистрационный № </t>
   </si>
   <si>
-    <t>____________</t>
-  </si>
-  <si>
     <t>в СГУК РВ и РАО</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>Отчет за</t>
-  </si>
-  <si>
-    <t>_______</t>
   </si>
   <si>
     <t>год</t>
@@ -199,15 +193,6 @@
     <t>Номер корректировки</t>
   </si>
   <si>
-    <t>_____</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Количество наблюдательных скважин, принадлежащих организации ( в случае, если количество наблюдательных скважин в отчетном году изменилось, к отчету прикладывается карта-схема): </t>
-  </si>
-  <si>
-    <t>_________ шт.</t>
-  </si>
-  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -247,28 +232,42 @@
     <t xml:space="preserve">Исполнитель </t>
   </si>
   <si>
-    <t xml:space="preserve">Должность </t>
-  </si>
-  <si>
-    <t>_________________</t>
-  </si>
-  <si>
-    <t>Фамилия, имя, отчество</t>
-  </si>
-  <si>
-    <t>Электронная почта</t>
+    <t>Количество наблюдательных скважин, принадлежащих организации ( в случае, если количество наблюдательных скважин в отчетном году изменилось, к отчету прикладывается карта-схема)</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>(Должность)</t>
+  </si>
+  <si>
+    <t>(Фамилия, имя, отчество (при наличии))</t>
+  </si>
+  <si>
+    <t>(Телефон)</t>
+  </si>
+  <si>
+    <t>(Электронная почта)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,6 +290,27 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -434,45 +454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -523,19 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -575,32 +543,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -630,12 +572,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -647,8 +591,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -660,6 +606,58 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -667,413 +665,288 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{CFAC6E1C-54FE-4A42-B159-B66B8D054117}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{EB8A5A27-7D5C-43D1-8AE5-AB303FC327D4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,24 +1223,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C94A963-8553-4177-BF06-147E50A6DBF2}">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB771E46-12B0-483E-AF3A-557B835C1548}">
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:IV65536"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.15625" style="1"/>
-    <col min="4" max="4" width="48.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.15625" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.83984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26171875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.578125" style="1" customWidth="1"/>
     <col min="10" max="256" width="9.15625" style="1"/>
     <col min="257" max="257" width="17" style="1" customWidth="1"/>
     <col min="258" max="259" width="9.15625" style="1"/>
@@ -1944,527 +1815,518 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="H6" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="46"/>
+      <c r="H10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="165" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
+      <c r="E11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="18"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="47" t="s">
+      <c r="B16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="53" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="25"/>
+      <c r="B17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="25"/>
+      <c r="B18" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="54"/>
-      <c r="B17" s="39" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="25"/>
+      <c r="B19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="54"/>
-      <c r="B18" s="39" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="25"/>
+      <c r="B20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-    </row>
-    <row r="19" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="54"/>
-      <c r="B19" s="39" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="25"/>
+      <c r="B21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-    </row>
-    <row r="20" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="54"/>
-      <c r="B20" s="39" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="N21" s="50"/>
+    </row>
+    <row r="22" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="25"/>
+      <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="54"/>
-      <c r="B21" s="39" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="53"/>
+    </row>
+    <row r="23" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="25"/>
+      <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-    </row>
-    <row r="22" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="54"/>
-      <c r="B22" s="59" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:16" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="26"/>
+      <c r="B24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-    </row>
-    <row r="23" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="54"/>
-      <c r="B23" s="59" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-    </row>
-    <row r="24" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="55"/>
-      <c r="B24" s="62" t="s">
+      <c r="B25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
-    </row>
-    <row r="25" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="54" t="s">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="25"/>
+      <c r="B26" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="69" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="25"/>
+      <c r="B27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="52"/>
-    </row>
-    <row r="26" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="54"/>
-      <c r="B26" s="39" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="25"/>
+      <c r="B28" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-    </row>
-    <row r="27" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="54"/>
-      <c r="B27" s="39" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="25"/>
+      <c r="B29" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
-    </row>
-    <row r="28" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="54"/>
-      <c r="B28" s="39" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="25"/>
+      <c r="B30" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:16" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="25"/>
+      <c r="B31" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:16" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="26"/>
+      <c r="B32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="44"/>
-    </row>
-    <row r="29" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="54"/>
-      <c r="B29" s="39" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-    </row>
-    <row r="30" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="54"/>
-      <c r="B30" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-    </row>
-    <row r="31" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="54"/>
-      <c r="B31" s="59" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+    </row>
+    <row r="35" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-    </row>
-    <row r="32" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="55"/>
-      <c r="B32" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="68"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-    </row>
-    <row r="35" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="1:10" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="6"/>
+      <c r="A41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="33">
     <mergeCell ref="A34:I34"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F28:I28"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
@@ -2474,23 +2336,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F598AF4-0F9D-44CD-B3A1-96F82F9E1CC5}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.26171875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.41796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.68359375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.41796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.41796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.68359375" style="1" customWidth="1"/>
-    <col min="9" max="256" width="9.15625" style="1"/>
+    <col min="1" max="12" width="10.578125" style="1" customWidth="1"/>
+    <col min="13" max="256" width="9.15625" style="1"/>
     <col min="257" max="257" width="12.26171875" style="1" customWidth="1"/>
     <col min="258" max="258" width="14.83984375" style="1" customWidth="1"/>
     <col min="259" max="259" width="13.41796875" style="1" customWidth="1"/>
@@ -3060,273 +2915,271 @@
     <col min="16137" max="16384" width="9.15625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="H1" s="22" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="L1" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="59" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="84" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="12.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+    </row>
+    <row r="7" spans="1:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:12" ht="320.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="84"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="21" t="s">
+      <c r="B8" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="1" t="s">
+      <c r="C8" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="85" t="s">
+      <c r="D8" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="1" t="s">
+      <c r="E8" s="69" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="140.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="75" t="s">
+      <c r="F8" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="G8" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="H8" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="75" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="45"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="B14" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="C14" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="76"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="78"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="79" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="20">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8">
-        <v>7</v>
-      </c>
-      <c r="H8" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="77" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+    </row>
+    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78" t="s">
+      <c r="E19" s="86"/>
+      <c r="F19" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4" t="s">
+      <c r="G19" s="87"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="29" t="s">
+      <c r="J19" s="85"/>
+      <c r="K19" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="L19" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A2:H2"/>
+  <mergeCells count="21">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
